--- a/SPPSApi/Doc/Template/FS1211_PartList.xlsx
+++ b/SPPSApi/Doc/Template/FS1211_PartList.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>对象月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>包装班值(A/B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收容数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,12 +138,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -453,15 +464,16 @@
     <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,34 +495,38 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS1211_PartList.xlsx
+++ b/SPPSApi/Doc/Template/FS1211_PartList.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,46 +481,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
